--- a/resources/Test Data/TestData.xlsx
+++ b/resources/Test Data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\git\QAF\resources\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush\Documents\GitHub\QAF\resources\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB955F2-D31F-42DA-B30C-85AF9CE44777}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1A6F8-F9F8-4590-96A7-FD52653C7B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13185D3D-EACA-4EBB-B37E-55DEA1429107}"/>
   </bookViews>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
     <t>XYZ1</t>
   </si>
   <si>
@@ -88,16 +79,31 @@
   </si>
   <si>
     <t>fdas3</t>
+  </si>
+  <si>
+    <t>TestKey1</t>
+  </si>
+  <si>
+    <t>TestKey2</t>
+  </si>
+  <si>
+    <t>TestKey3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,7 +471,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,79 +485,80 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/Test Data/TestData.xlsx
+++ b/resources/Test Data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush\Documents\GitHub\QAF\resources\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1A6F8-F9F8-4590-96A7-FD52653C7B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF28274-936E-4908-BF6D-49DA9E0078A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13185D3D-EACA-4EBB-B37E-55DEA1429107}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>XYZ1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Passed</t>
@@ -471,7 +468,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,27 +482,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -515,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -523,17 +520,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -541,17 +538,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>

--- a/resources/Test Data/TestData.xlsx
+++ b/resources/Test Data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush\Documents\GitHub\QAF\resources\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF28274-936E-4908-BF6D-49DA9E0078A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F380DC9D-2AFB-4C90-950B-29867509D2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13185D3D-EACA-4EBB-B37E-55DEA1429107}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>ALM ID</t>
   </si>
   <si>
-    <t>TestCaseId</t>
-  </si>
-  <si>
     <t>TestParam1</t>
   </si>
   <si>
@@ -78,13 +75,16 @@
     <t>fdas3</t>
   </si>
   <si>
-    <t>TestKey1</t>
-  </si>
-  <si>
-    <t>TestKey2</t>
-  </si>
-  <si>
-    <t>TestKey3</t>
+    <t>TestKey</t>
+  </si>
+  <si>
+    <t>T_Key_1</t>
+  </si>
+  <si>
+    <t>T_Key_2</t>
+  </si>
+  <si>
+    <t>T_Key_3</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -494,10 +494,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>

--- a/resources/Test Data/TestData.xlsx
+++ b/resources/Test Data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piyush\Documents\GitHub\QAF\resources\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F380DC9D-2AFB-4C90-950B-29867509D2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E531AE07-CC1C-48C0-B2F4-BA0FE510FB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13185D3D-EACA-4EBB-B37E-55DEA1429107}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>XYZ1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Passed</t>
   </si>
   <si>
     <t>Execution Flag</t>
@@ -468,7 +465,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,27 +479,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -512,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -520,7 +517,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -530,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -538,17 +535,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
